--- a/Code/Results/Cases/Case_1_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_230/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.905602295247633</v>
+        <v>1.447150491076314</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09249181796498007</v>
+        <v>0.2099720944267673</v>
       </c>
       <c r="E2">
-        <v>0.1332082283311564</v>
+        <v>0.2129104482259407</v>
       </c>
       <c r="F2">
-        <v>0.8799943263579166</v>
+        <v>1.427864945571685</v>
       </c>
       <c r="G2">
-        <v>0.0007822458152662765</v>
+        <v>0.00244283080509517</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2106897061502977</v>
+        <v>0.2688436694919218</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.019746722169259</v>
+        <v>0.4333223554745302</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.262061746508905</v>
+        <v>1.594904105419729</v>
       </c>
       <c r="O2">
-        <v>2.710328816766776</v>
+        <v>3.515032203701594</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.675621264274241</v>
+        <v>1.384924703245559</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09244461839691809</v>
+        <v>0.2105145597323883</v>
       </c>
       <c r="E3">
-        <v>0.1302490968028795</v>
+        <v>0.2124355301268874</v>
       </c>
       <c r="F3">
-        <v>0.8194631879014906</v>
+        <v>1.425083920606397</v>
       </c>
       <c r="G3">
-        <v>0.0007873012736419645</v>
+        <v>0.002446311811231266</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2028758319062334</v>
+        <v>0.2668291431689696</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8869001217390746</v>
+        <v>0.3935656026381196</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.243883770566953</v>
+        <v>1.593305147813595</v>
       </c>
       <c r="O3">
-        <v>2.470859555258329</v>
+        <v>3.484609906073871</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.535184954960357</v>
+        <v>1.347145246703207</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09245813124990043</v>
+        <v>0.2108792011133112</v>
       </c>
       <c r="E4">
-        <v>0.128472538874064</v>
+        <v>0.2121762828696312</v>
       </c>
       <c r="F4">
-        <v>0.7841026028279927</v>
+        <v>1.424255684989873</v>
       </c>
       <c r="G4">
-        <v>0.0007905101409074744</v>
+        <v>0.002448565787506926</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1981255365071988</v>
+        <v>0.265631363953446</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8054472808094886</v>
+        <v>0.3691657280409117</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.233991583981989</v>
+        <v>1.59295104811001</v>
       </c>
       <c r="O4">
-        <v>2.329061018212997</v>
+        <v>3.468234449352536</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.478127116062495</v>
+        <v>1.331858482527849</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09247410955272173</v>
+        <v>0.2110357602785378</v>
       </c>
       <c r="E5">
-        <v>0.1277587060547596</v>
+        <v>0.2120788382748771</v>
       </c>
       <c r="F5">
-        <v>0.7701178398627917</v>
+        <v>1.424139126451621</v>
       </c>
       <c r="G5">
-        <v>0.0007918446881726926</v>
+        <v>0.002449513718111685</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.196201729507159</v>
+        <v>0.2651532271011448</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7722729441906893</v>
+        <v>0.3592259882106816</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.230269954166772</v>
+        <v>1.592965146043042</v>
       </c>
       <c r="O5">
-        <v>2.272497003179552</v>
+        <v>3.462139993747854</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.468662386349195</v>
+        <v>1.329326725577488</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09247738940718975</v>
+        <v>0.2110622386742431</v>
       </c>
       <c r="E6">
-        <v>0.1276407861036351</v>
+        <v>0.212063154892121</v>
       </c>
       <c r="F6">
-        <v>0.7678205262778448</v>
+        <v>1.42413311246672</v>
       </c>
       <c r="G6">
-        <v>0.0007920679296723399</v>
+        <v>0.002449672900750111</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1958830078470015</v>
+        <v>0.2650744385205286</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7667651817256171</v>
+        <v>0.3575757271854059</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.229670403634941</v>
+        <v>1.592977070504446</v>
       </c>
       <c r="O6">
-        <v>2.26317555438024</v>
+        <v>3.461162945088063</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.53441478994219</v>
+        <v>1.346938642473532</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09245830460399063</v>
+        <v>0.2108812802380235</v>
       </c>
       <c r="E7">
-        <v>0.1284628708794529</v>
+        <v>0.21217493540642</v>
       </c>
       <c r="F7">
-        <v>0.7839123160840131</v>
+        <v>1.42425321861969</v>
       </c>
       <c r="G7">
-        <v>0.0007905280294829408</v>
+        <v>0.002448578452465335</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1980995428071353</v>
+        <v>0.2656248751079673</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8049998193525312</v>
+        <v>0.3690316625636854</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.233940151868239</v>
+        <v>1.592950596145371</v>
       </c>
       <c r="O7">
-        <v>2.328293360097604</v>
+        <v>3.468149915257442</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.826129879059465</v>
+        <v>1.425607018151965</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09246658752056547</v>
+        <v>0.2101526014614237</v>
       </c>
       <c r="E8">
-        <v>0.1321795251727096</v>
+        <v>0.212740019928491</v>
       </c>
       <c r="F8">
-        <v>0.8587303553098877</v>
+        <v>1.426723443138002</v>
       </c>
       <c r="G8">
-        <v>0.0007839675310246599</v>
+        <v>0.002444006905362219</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.207985650915532</v>
+        <v>0.2681410089539469</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9739105288819871</v>
+        <v>0.4196123399335931</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.255524589667999</v>
+        <v>1.594222844605881</v>
       </c>
       <c r="O8">
-        <v>2.62661294857071</v>
+        <v>3.50406398384817</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.405467697811218</v>
+        <v>1.583223319965157</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09283111883832262</v>
+        <v>0.2089729257416977</v>
       </c>
       <c r="E9">
-        <v>0.1397903537020788</v>
+        <v>0.2141021385653303</v>
       </c>
       <c r="F9">
-        <v>1.021180686609057</v>
+        <v>1.438554206058299</v>
       </c>
       <c r="G9">
-        <v>0.0007719071588413836</v>
+        <v>0.002435963346704568</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2277490724595879</v>
+        <v>0.27338065050116</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.306598812743744</v>
+        <v>0.5188636461713827</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.308388026678145</v>
+        <v>1.601675226018074</v>
       </c>
       <c r="O9">
-        <v>3.257846243050835</v>
+        <v>3.592811637148941</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.83731002644231</v>
+        <v>1.701019202634711</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09332933841286462</v>
+        <v>0.2082565782257078</v>
       </c>
       <c r="E10">
-        <v>0.1455839512782475</v>
+        <v>0.2152542463760305</v>
       </c>
       <c r="F10">
-        <v>1.152223617072863</v>
+        <v>1.451522335549114</v>
       </c>
       <c r="G10">
-        <v>0.0007634971147343262</v>
+        <v>0.002430609574753557</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2425028922999246</v>
+        <v>0.2774100713796273</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.552749130642212</v>
+        <v>0.5917968481687126</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.35434654058102</v>
+        <v>1.610145153880026</v>
       </c>
       <c r="O10">
-        <v>3.756815831272775</v>
+        <v>3.669250693703702</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.035541368138354</v>
+        <v>1.755031979366606</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09361086877230917</v>
+        <v>0.2079630076519692</v>
       </c>
       <c r="E11">
-        <v>0.1482651956408816</v>
+        <v>0.2158105120089182</v>
       </c>
       <c r="F11">
-        <v>1.214884360861959</v>
+        <v>1.458354239523359</v>
       </c>
       <c r="G11">
-        <v>0.000759759493180497</v>
+        <v>0.002428293470400411</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2492671260084975</v>
+        <v>0.2792808908055378</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.665310697071106</v>
+        <v>0.6249741017973065</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.376966927199931</v>
+        <v>1.61464310198653</v>
       </c>
       <c r="O11">
-        <v>3.993156299883651</v>
+        <v>3.706480025791336</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.110901033013818</v>
+        <v>1.77554557264898</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09372584798396488</v>
+        <v>0.2078564576009079</v>
       </c>
       <c r="E12">
-        <v>0.1492872610064389</v>
+        <v>0.2160257171751425</v>
       </c>
       <c r="F12">
-        <v>1.239096739959948</v>
+        <v>1.461075663649083</v>
       </c>
       <c r="G12">
-        <v>0.0007583559781088436</v>
+        <v>0.002427433491301634</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2518362863669026</v>
+        <v>0.2799946396079491</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.708037751784502</v>
+        <v>0.6375368377299537</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.385793967078612</v>
+        <v>1.61643860885043</v>
       </c>
       <c r="O12">
-        <v>4.084152428852406</v>
+        <v>3.720932079586362</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.094657289630845</v>
+        <v>1.771124949020191</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09370070454147594</v>
+        <v>0.2078792000507796</v>
       </c>
       <c r="E13">
-        <v>0.1490668382926295</v>
+        <v>0.215979167157915</v>
       </c>
       <c r="F13">
-        <v>1.233859870781401</v>
+        <v>1.460483578410987</v>
       </c>
       <c r="G13">
-        <v>0.0007586577375832093</v>
+        <v>0.002427617945117173</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2512826271781563</v>
+        <v>0.2798406868950352</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.698830853639578</v>
+        <v>0.6348312732718</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.383881043209712</v>
+        <v>1.61604782031381</v>
       </c>
       <c r="O13">
-        <v>4.064485522333484</v>
+        <v>3.71780380875623</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.04173514143713</v>
+        <v>1.756718447153048</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09362015745158203</v>
+        <v>0.2079541492959613</v>
       </c>
       <c r="E14">
-        <v>0.1483491454830244</v>
+        <v>0.2158281260665653</v>
       </c>
       <c r="F14">
-        <v>1.21686634998612</v>
+        <v>1.458575439291991</v>
       </c>
       <c r="G14">
-        <v>0.0007596437928694605</v>
+        <v>0.002428222377546458</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2494783373577576</v>
+        <v>0.2793395056571484</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.668823714864317</v>
+        <v>0.6260076651246891</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.377687810110658</v>
+        <v>1.614788973845208</v>
       </c>
       <c r="O14">
-        <v>4.000611634436723</v>
+        <v>3.707661903256337</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.009358211344022</v>
+        <v>1.747901842009185</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09357192539282622</v>
+        <v>0.2080006586054814</v>
       </c>
       <c r="E15">
-        <v>0.1479104207383912</v>
+        <v>0.2157362008565791</v>
       </c>
       <c r="F15">
-        <v>1.206521795761475</v>
+        <v>1.457424149248595</v>
       </c>
       <c r="G15">
-        <v>0.000760249296316723</v>
+        <v>0.002428594831751179</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2483741638529793</v>
+        <v>0.2790332054237581</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.65045738208741</v>
+        <v>0.6206028290962138</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.373928746896283</v>
+        <v>1.614029890339552</v>
       </c>
       <c r="O15">
-        <v>3.961687048160911</v>
+        <v>3.701495833875981</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.824394152764285</v>
+        <v>1.69749782261016</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09331208341200892</v>
+        <v>0.2082764114855173</v>
       </c>
       <c r="E16">
-        <v>0.1454096584769324</v>
+        <v>0.2152185347246629</v>
       </c>
       <c r="F16">
-        <v>1.148193760170386</v>
+        <v>1.451094640249394</v>
       </c>
       <c r="G16">
-        <v>0.000763743081006366</v>
+        <v>0.002430763332330971</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2420619024275439</v>
+        <v>0.2772885589466512</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.545406277640524</v>
+        <v>0.5896285674024</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.352903967105107</v>
+        <v>1.609864136390456</v>
       </c>
       <c r="O16">
-        <v>3.741571545471174</v>
+        <v>3.666867177396512</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.71140715187255</v>
+        <v>1.666685020688476</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09316705462586938</v>
+        <v>0.2084538311520667</v>
       </c>
       <c r="E17">
-        <v>0.1438873325842671</v>
+        <v>0.2149091547774837</v>
       </c>
       <c r="F17">
-        <v>1.113223600235671</v>
+        <v>1.447450717396009</v>
       </c>
       <c r="G17">
-        <v>0.0007659084084928978</v>
+        <v>0.00243212414684868</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2382030906160963</v>
+        <v>0.2762278692957807</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.481123393421825</v>
+        <v>0.5706262469081196</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.340455036254752</v>
+        <v>1.607473399377412</v>
       </c>
       <c r="O17">
-        <v>3.609039574470216</v>
+        <v>3.646253456530701</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.646585539623402</v>
+        <v>1.649002562606086</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09308877174521157</v>
+        <v>0.2085589199718179</v>
       </c>
       <c r="E18">
-        <v>0.1430160211719667</v>
+        <v>0.2147342391632243</v>
       </c>
       <c r="F18">
-        <v>1.093393692329698</v>
+        <v>1.445442600456062</v>
       </c>
       <c r="G18">
-        <v>0.0007671621982651598</v>
+        <v>0.002432918090508618</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2359885496324523</v>
+        <v>0.2756213556614142</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.444203606697727</v>
+        <v>0.5596966168747599</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.333455090888378</v>
+        <v>1.606159044918996</v>
       </c>
       <c r="O18">
-        <v>3.533681450190727</v>
+        <v>3.634628187746671</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.624665400527647</v>
+        <v>1.643022537438526</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09306313483728701</v>
+        <v>0.2085950244495791</v>
       </c>
       <c r="E19">
-        <v>0.1427217426054099</v>
+        <v>0.2146755384273042</v>
       </c>
       <c r="F19">
-        <v>1.086727071378746</v>
+        <v>1.444777754695437</v>
       </c>
       <c r="G19">
-        <v>0.0007675881686515971</v>
+        <v>0.002433188838984858</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2352395905517284</v>
+        <v>0.27541661710206</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.431711957221836</v>
+        <v>0.5559960539470694</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.33111213653892</v>
+        <v>1.605724473920745</v>
       </c>
       <c r="O19">
-        <v>3.508311565846213</v>
+        <v>3.630731754879264</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.723417420412659</v>
+        <v>1.669960939346026</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09318195862147149</v>
+        <v>0.2084346299083037</v>
       </c>
       <c r="E20">
-        <v>0.1440489417007882</v>
+        <v>0.2149417755263094</v>
       </c>
       <c r="F20">
-        <v>1.116916520926026</v>
+        <v>1.447829533640203</v>
       </c>
       <c r="G20">
-        <v>0.0007656770472194863</v>
+        <v>0.002431978123173312</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2386133551482743</v>
+        <v>0.2763404132758396</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.487960698917192</v>
+        <v>0.5726490812877785</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.341763546801559</v>
+        <v>1.607721615364881</v>
       </c>
       <c r="O20">
-        <v>3.623056636964236</v>
+        <v>3.648423888167542</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.057271374536072</v>
+        <v>1.760948364095157</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09364358477423451</v>
+        <v>0.207932009739153</v>
       </c>
       <c r="E21">
-        <v>0.1485597649268584</v>
+        <v>0.2158723672791787</v>
       </c>
       <c r="F21">
-        <v>1.221844236884024</v>
+        <v>1.459132258575892</v>
       </c>
       <c r="G21">
-        <v>0.0007593538500999587</v>
+        <v>0.002428044378274376</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2500080910580564</v>
+        <v>0.2794865716372215</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.67763460610837</v>
+        <v>0.6285993992570411</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.379499701259292</v>
+        <v>1.615156228445329</v>
       </c>
       <c r="O21">
-        <v>4.019330967820622</v>
+        <v>3.710631209614348</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.277196062581197</v>
+        <v>1.82076379429742</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09399434448003419</v>
+        <v>0.2076304281645669</v>
       </c>
       <c r="E22">
-        <v>0.1515472200687746</v>
+        <v>0.2165071082586074</v>
       </c>
       <c r="F22">
-        <v>1.293266393704755</v>
+        <v>1.467302324441576</v>
       </c>
       <c r="G22">
-        <v>0.0007552898582736487</v>
+        <v>0.002425572962814625</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2575001353235606</v>
+        <v>0.2815736602863836</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.802204203982882</v>
+        <v>0.6651613514380585</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.405692492509843</v>
+        <v>1.620552543829376</v>
       </c>
       <c r="O22">
-        <v>4.287138239554963</v>
+        <v>3.753351719935154</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.159646526003201</v>
+        <v>1.788807571105963</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09380247161329791</v>
+        <v>0.2077889341808259</v>
       </c>
       <c r="E23">
-        <v>0.1499490913625294</v>
+        <v>0.2161659278800805</v>
       </c>
       <c r="F23">
-        <v>1.254870529617534</v>
+        <v>1.462870082273497</v>
       </c>
       <c r="G23">
-        <v>0.0007574529052709138</v>
+        <v>0.002426882925547627</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2534973268487093</v>
+        <v>0.2804569572445601</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.735657109213236</v>
+        <v>0.6456482235075498</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.391567752818588</v>
+        <v>1.617623425702178</v>
       </c>
       <c r="O23">
-        <v>4.14334323435412</v>
+        <v>3.730361811048283</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.71798715679779</v>
+        <v>1.668479796017266</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09317520468683327</v>
+        <v>0.2084433011712719</v>
       </c>
       <c r="E24">
-        <v>0.1439758661019717</v>
+        <v>0.21492701848927</v>
       </c>
       <c r="F24">
-        <v>1.1152460986318</v>
+        <v>1.447658000380187</v>
       </c>
       <c r="G24">
-        <v>0.0007657816178331013</v>
+        <v>0.002432044104466039</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2384278622854836</v>
+        <v>0.2762895218823189</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.484869438268134</v>
+        <v>0.5717345732097669</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.341171480923265</v>
+        <v>1.607609209630368</v>
       </c>
       <c r="O24">
-        <v>3.616716929668712</v>
+        <v>3.647441932613901</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.24778766364301</v>
+        <v>1.540230272110762</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09269350505360308</v>
+        <v>0.2092655397981389</v>
       </c>
       <c r="E25">
-        <v>0.1376964374528029</v>
+        <v>0.2137068185770978</v>
       </c>
       <c r="F25">
-        <v>0.9753418265668756</v>
+        <v>1.434603965530513</v>
       </c>
       <c r="G25">
-        <v>0.0007750876138211723</v>
+        <v>0.002438041317575673</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2223619067019058</v>
+        <v>0.2719311438723722</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.21635993858294</v>
+        <v>0.492009413382533</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.292890045641272</v>
+        <v>1.599131309853178</v>
       </c>
       <c r="O25">
-        <v>3.081439029585454</v>
+        <v>3.566834749937783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_230/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.447150491076314</v>
+        <v>1.90560229524749</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2099720944267673</v>
+        <v>0.09249181796504047</v>
       </c>
       <c r="E2">
-        <v>0.2129104482259407</v>
+        <v>0.1332082283311529</v>
       </c>
       <c r="F2">
-        <v>1.427864945571685</v>
+        <v>0.8799943263579166</v>
       </c>
       <c r="G2">
-        <v>0.00244283080509517</v>
+        <v>0.0007822458152597267</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2688436694919218</v>
+        <v>0.2106897061502693</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4333223554745302</v>
+        <v>1.019746722169259</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.594904105419729</v>
+        <v>1.262061746508905</v>
       </c>
       <c r="O2">
-        <v>3.515032203701594</v>
+        <v>2.710328816766776</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.384924703245559</v>
+        <v>1.675621264274213</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2105145597323883</v>
+        <v>0.09244461839703533</v>
       </c>
       <c r="E3">
-        <v>0.2124355301268874</v>
+        <v>0.1302490968028938</v>
       </c>
       <c r="F3">
-        <v>1.425083920606397</v>
+        <v>0.8194631879014906</v>
       </c>
       <c r="G3">
-        <v>0.002446311811231266</v>
+        <v>0.0007873012737023569</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2668291431689696</v>
+        <v>0.2028758319061836</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3935656026381196</v>
+        <v>0.8869001217391883</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.593305147813595</v>
+        <v>1.243883770566953</v>
       </c>
       <c r="O3">
-        <v>3.484609906073871</v>
+        <v>2.470859555258329</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.347145246703207</v>
+        <v>1.535184954960272</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2108792011133112</v>
+        <v>0.09245813125007984</v>
       </c>
       <c r="E4">
-        <v>0.2121762828696312</v>
+        <v>0.1284725388740853</v>
       </c>
       <c r="F4">
-        <v>1.424255684989873</v>
+        <v>0.7841026028279856</v>
       </c>
       <c r="G4">
-        <v>0.002448565787506926</v>
+        <v>0.0007905101409071203</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.265631363953446</v>
+        <v>0.198125536507149</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3691657280409117</v>
+        <v>0.8054472808096023</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.59295104811001</v>
+        <v>1.233991583982061</v>
       </c>
       <c r="O4">
-        <v>3.468234449352536</v>
+        <v>2.329061018213025</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.331858482527849</v>
+        <v>1.478127116062495</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2110357602785378</v>
+        <v>0.0924741095527164</v>
       </c>
       <c r="E5">
-        <v>0.2120788382748771</v>
+        <v>0.127758706054756</v>
       </c>
       <c r="F5">
-        <v>1.424139126451621</v>
+        <v>0.7701178398627917</v>
       </c>
       <c r="G5">
-        <v>0.002449513718111685</v>
+        <v>0.0007918446881720905</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2651532271011448</v>
+        <v>0.196201729507095</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3592259882106816</v>
+        <v>0.7722729441906608</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.592965146043042</v>
+        <v>1.230269954166772</v>
       </c>
       <c r="O5">
-        <v>3.462139993747854</v>
+        <v>2.272497003179609</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.329326725577488</v>
+        <v>1.468662386349052</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2110622386742431</v>
+        <v>0.09247738940672789</v>
       </c>
       <c r="E6">
-        <v>0.212063154892121</v>
+        <v>0.1276407861036244</v>
       </c>
       <c r="F6">
-        <v>1.42413311246672</v>
+        <v>0.767820526277859</v>
       </c>
       <c r="G6">
-        <v>0.002449672900750111</v>
+        <v>0.0007920679296727627</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2650744385205286</v>
+        <v>0.1958830078470015</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3575757271854059</v>
+        <v>0.766765181725674</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.592977070504446</v>
+        <v>1.229670403634969</v>
       </c>
       <c r="O6">
-        <v>3.461162945088063</v>
+        <v>2.26317555438024</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.346938642473532</v>
+        <v>1.534414789942161</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2108812802380235</v>
+        <v>0.0924583046039853</v>
       </c>
       <c r="E7">
-        <v>0.21217493540642</v>
+        <v>0.1284628708794493</v>
       </c>
       <c r="F7">
-        <v>1.42425321861969</v>
+        <v>0.7839123160840344</v>
       </c>
       <c r="G7">
-        <v>0.002448578452465335</v>
+        <v>0.0007905280294237459</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2656248751079673</v>
+        <v>0.1980995428071139</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3690316625636854</v>
+        <v>0.804999819352588</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.592950596145371</v>
+        <v>1.233940151868225</v>
       </c>
       <c r="O7">
-        <v>3.468149915257442</v>
+        <v>2.328293360097689</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.425607018151965</v>
+        <v>1.826129879059437</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2101526014614237</v>
+        <v>0.09246658752056192</v>
       </c>
       <c r="E8">
-        <v>0.212740019928491</v>
+        <v>0.1321795251727131</v>
       </c>
       <c r="F8">
-        <v>1.426723443138002</v>
+        <v>0.8587303553099019</v>
       </c>
       <c r="G8">
-        <v>0.002444006905362219</v>
+        <v>0.00078396753099277</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2681410089539469</v>
+        <v>0.2079856509154681</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4196123399335931</v>
+        <v>0.9739105288820724</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.594222844605881</v>
+        <v>1.255524589668013</v>
       </c>
       <c r="O8">
-        <v>3.50406398384817</v>
+        <v>2.626612948570767</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.583223319965157</v>
+        <v>2.405467697811218</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2089729257416977</v>
+        <v>0.09283111883836526</v>
       </c>
       <c r="E9">
-        <v>0.2141021385653303</v>
+        <v>0.1397903537020753</v>
       </c>
       <c r="F9">
-        <v>1.438554206058299</v>
+        <v>1.021180686609043</v>
       </c>
       <c r="G9">
-        <v>0.002435963346704568</v>
+        <v>0.0007719071589048095</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.27338065050116</v>
+        <v>0.2277490724595381</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5188636461713827</v>
+        <v>1.306598812743829</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.601675226018074</v>
+        <v>1.308388026678188</v>
       </c>
       <c r="O9">
-        <v>3.592811637148941</v>
+        <v>3.257846243050892</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.701019202634711</v>
+        <v>2.837310026442367</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2082565782257078</v>
+        <v>0.09332933841283264</v>
       </c>
       <c r="E10">
-        <v>0.2152542463760305</v>
+        <v>0.1455839512782653</v>
       </c>
       <c r="F10">
-        <v>1.451522335549114</v>
+        <v>1.152223617072863</v>
       </c>
       <c r="G10">
-        <v>0.002430609574753557</v>
+        <v>0.0007634971147344548</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2774100713796273</v>
+        <v>0.2425028922998678</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5917968481687126</v>
+        <v>1.552749130642297</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.610145153880026</v>
+        <v>1.35434654058102</v>
       </c>
       <c r="O10">
-        <v>3.669250693703702</v>
+        <v>3.756815831272775</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.755031979366606</v>
+        <v>3.035541368138297</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2079630076519692</v>
+        <v>0.09361086877222036</v>
       </c>
       <c r="E11">
-        <v>0.2158105120089182</v>
+        <v>0.1482651956408745</v>
       </c>
       <c r="F11">
-        <v>1.458354239523359</v>
+        <v>1.214884360861973</v>
       </c>
       <c r="G11">
-        <v>0.002428293470400411</v>
+        <v>0.0007597594931403757</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2792808908055378</v>
+        <v>0.2492671260084265</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6249741017973065</v>
+        <v>1.665310697071078</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.61464310198653</v>
+        <v>1.376966927199973</v>
       </c>
       <c r="O11">
-        <v>3.706480025791336</v>
+        <v>3.993156299883594</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.77554557264898</v>
+        <v>3.110901033013988</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2078564576009079</v>
+        <v>0.09372584798396133</v>
       </c>
       <c r="E12">
-        <v>0.2160257171751425</v>
+        <v>0.1492872610064495</v>
       </c>
       <c r="F12">
-        <v>1.461075663649083</v>
+        <v>1.239096739959948</v>
       </c>
       <c r="G12">
-        <v>0.002427433491301634</v>
+        <v>0.0007583559781767502</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2799946396079491</v>
+        <v>0.251836286366995</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6375368377299537</v>
+        <v>1.708037751784559</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.61643860885043</v>
+        <v>1.385793967078627</v>
       </c>
       <c r="O12">
-        <v>3.720932079586362</v>
+        <v>4.084152428852462</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.771124949020191</v>
+        <v>3.094657289630959</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2078792000507796</v>
+        <v>0.09370070454144752</v>
       </c>
       <c r="E13">
-        <v>0.215979167157915</v>
+        <v>0.149066838292601</v>
       </c>
       <c r="F13">
-        <v>1.460483578410987</v>
+        <v>1.233859870781387</v>
       </c>
       <c r="G13">
-        <v>0.002427617945117173</v>
+        <v>0.000758657737526714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2798406868950352</v>
+        <v>0.2512826271782203</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6348312732718</v>
+        <v>1.698830853639549</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.61604782031381</v>
+        <v>1.383881043209698</v>
       </c>
       <c r="O13">
-        <v>3.71780380875623</v>
+        <v>4.064485522333484</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.756718447153048</v>
+        <v>3.041735141436732</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2079541492959613</v>
+        <v>0.0936201574515394</v>
       </c>
       <c r="E14">
-        <v>0.2158281260665653</v>
+        <v>0.1483491454830279</v>
       </c>
       <c r="F14">
-        <v>1.458575439291991</v>
+        <v>1.21686634998612</v>
       </c>
       <c r="G14">
-        <v>0.002428222377546458</v>
+        <v>0.0007596437928297603</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2793395056571484</v>
+        <v>0.2494783373578073</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6260076651246891</v>
+        <v>1.66882371486443</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.614788973845208</v>
+        <v>1.377687810110643</v>
       </c>
       <c r="O14">
-        <v>3.707661903256337</v>
+        <v>4.000611634436723</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.747901842009185</v>
+        <v>3.009358211343965</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2080006586054814</v>
+        <v>0.09357192539313175</v>
       </c>
       <c r="E15">
-        <v>0.2157362008565791</v>
+        <v>0.147910420738409</v>
       </c>
       <c r="F15">
-        <v>1.457424149248595</v>
+        <v>1.206521795761461</v>
       </c>
       <c r="G15">
-        <v>0.002428594831751179</v>
+        <v>0.0007602492962775323</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2790332054237581</v>
+        <v>0.2483741638529438</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6206028290962138</v>
+        <v>1.65045738208741</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.614029890339552</v>
+        <v>1.373928746896283</v>
       </c>
       <c r="O15">
-        <v>3.701495833875981</v>
+        <v>3.961687048160854</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.69749782261016</v>
+        <v>2.824394152764341</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2082764114855173</v>
+        <v>0.09331208341184549</v>
       </c>
       <c r="E16">
-        <v>0.2152185347246629</v>
+        <v>0.1454096584769395</v>
       </c>
       <c r="F16">
-        <v>1.451094640249394</v>
+        <v>1.148193760170386</v>
       </c>
       <c r="G16">
-        <v>0.002430763332330971</v>
+        <v>0.0007637430810723208</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2772885589466512</v>
+        <v>0.2420619024275936</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5896285674024</v>
+        <v>1.545406277640524</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.609864136390456</v>
+        <v>1.352903967105107</v>
       </c>
       <c r="O16">
-        <v>3.666867177396512</v>
+        <v>3.741571545471174</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.666685020688476</v>
+        <v>2.71140715187255</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2084538311520667</v>
+        <v>0.09316705462579478</v>
       </c>
       <c r="E17">
-        <v>0.2149091547774837</v>
+        <v>0.1438873325842636</v>
       </c>
       <c r="F17">
-        <v>1.447450717396009</v>
+        <v>1.113223600235671</v>
       </c>
       <c r="G17">
-        <v>0.00243212414684868</v>
+        <v>0.0007659084084929684</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2762278692957807</v>
+        <v>0.238203090616075</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5706262469081196</v>
+        <v>1.481123393421854</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.607473399377412</v>
+        <v>1.340455036254696</v>
       </c>
       <c r="O17">
-        <v>3.646253456530701</v>
+        <v>3.60903957447016</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.649002562606086</v>
+        <v>2.646585539623402</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2085589199718179</v>
+        <v>0.09308877174520802</v>
       </c>
       <c r="E18">
-        <v>0.2147342391632243</v>
+        <v>0.1430160211719631</v>
       </c>
       <c r="F18">
-        <v>1.445442600456062</v>
+        <v>1.093393692329755</v>
       </c>
       <c r="G18">
-        <v>0.002432918090508618</v>
+        <v>0.0007671621982644252</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2756213556614142</v>
+        <v>0.2359885496324452</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5596966168747599</v>
+        <v>1.444203606697613</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.606159044918996</v>
+        <v>1.333455090888435</v>
       </c>
       <c r="O18">
-        <v>3.634628187746671</v>
+        <v>3.53368145019067</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.643022537438526</v>
+        <v>2.624665400527533</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2085950244495791</v>
+        <v>0.09306313483747175</v>
       </c>
       <c r="E19">
-        <v>0.2146755384273042</v>
+        <v>0.1427217426054064</v>
       </c>
       <c r="F19">
-        <v>1.444777754695437</v>
+        <v>1.086727071378732</v>
       </c>
       <c r="G19">
-        <v>0.002433188838984858</v>
+        <v>0.0007675881686231756</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.27541661710206</v>
+        <v>0.2352395905517426</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5559960539470694</v>
+        <v>1.431711957221836</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.605724473920745</v>
+        <v>1.33111213653892</v>
       </c>
       <c r="O19">
-        <v>3.630731754879264</v>
+        <v>3.508311565846213</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.669960939346026</v>
+        <v>2.723417420412488</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2084346299083037</v>
+        <v>0.09318195862146439</v>
       </c>
       <c r="E20">
-        <v>0.2149417755263094</v>
+        <v>0.1440489417007882</v>
       </c>
       <c r="F20">
-        <v>1.447829533640203</v>
+        <v>1.116916520926011</v>
       </c>
       <c r="G20">
-        <v>0.002431978123173312</v>
+        <v>0.0007656770472943327</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2763404132758396</v>
+        <v>0.2386133551482317</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5726490812877785</v>
+        <v>1.48796069891722</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.607721615364881</v>
+        <v>1.341763546801644</v>
       </c>
       <c r="O20">
-        <v>3.648423888167542</v>
+        <v>3.623056636964293</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.760948364095157</v>
+        <v>3.057271374535958</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.207932009739153</v>
+        <v>0.09364358477441925</v>
       </c>
       <c r="E21">
-        <v>0.2158723672791787</v>
+        <v>0.1485597649268691</v>
       </c>
       <c r="F21">
-        <v>1.459132258575892</v>
+        <v>1.221844236884024</v>
       </c>
       <c r="G21">
-        <v>0.002428044378274376</v>
+        <v>0.0007593538501006841</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2794865716372215</v>
+        <v>0.250008091058092</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6285993992570411</v>
+        <v>1.677634606108455</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.615156228445329</v>
+        <v>1.379499701259292</v>
       </c>
       <c r="O21">
-        <v>3.710631209614348</v>
+        <v>4.019330967820622</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.82076379429742</v>
+        <v>3.27719606258097</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2076304281645669</v>
+        <v>0.09399434447991695</v>
       </c>
       <c r="E22">
-        <v>0.2165071082586074</v>
+        <v>0.151547220068764</v>
       </c>
       <c r="F22">
-        <v>1.467302324441576</v>
+        <v>1.293266393704769</v>
       </c>
       <c r="G22">
-        <v>0.002425572962814625</v>
+        <v>0.0007552898583014699</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2815736602863836</v>
+        <v>0.2575001353235251</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6651613514380585</v>
+        <v>1.802204203982967</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.620552543829376</v>
+        <v>1.4056924925099</v>
       </c>
       <c r="O22">
-        <v>3.753351719935154</v>
+        <v>4.28713823955502</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.788807571105963</v>
+        <v>3.159646526003542</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2077889341808259</v>
+        <v>0.09380247161329791</v>
       </c>
       <c r="E23">
-        <v>0.2161659278800805</v>
+        <v>0.1499490913625117</v>
       </c>
       <c r="F23">
-        <v>1.462870082273497</v>
+        <v>1.254870529617548</v>
       </c>
       <c r="G23">
-        <v>0.002426882925547627</v>
+        <v>0.0007574529052986612</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2804569572445601</v>
+        <v>0.2534973268486809</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6456482235075498</v>
+        <v>1.73565710921315</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.617623425702178</v>
+        <v>1.391567752818602</v>
       </c>
       <c r="O23">
-        <v>3.730361811048283</v>
+        <v>4.14334323435412</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.668479796017266</v>
+        <v>2.71798715679779</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2084433011712719</v>
+        <v>0.09317520468683327</v>
       </c>
       <c r="E24">
-        <v>0.21492701848927</v>
+        <v>0.1439758661019752</v>
       </c>
       <c r="F24">
-        <v>1.447658000380187</v>
+        <v>1.1152460986318</v>
       </c>
       <c r="G24">
-        <v>0.002432044104466039</v>
+        <v>0.0007657816178323618</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2762895218823189</v>
+        <v>0.2384278622854836</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5717345732097669</v>
+        <v>1.484869438268134</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.607609209630368</v>
+        <v>1.341171480923279</v>
       </c>
       <c r="O24">
-        <v>3.647441932613901</v>
+        <v>3.616716929668769</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.540230272110762</v>
+        <v>2.247787663642953</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2092655397981389</v>
+        <v>0.09269350505341123</v>
       </c>
       <c r="E25">
-        <v>0.2137068185770978</v>
+        <v>0.1376964374528207</v>
       </c>
       <c r="F25">
-        <v>1.434603965530513</v>
+        <v>0.9753418265668898</v>
       </c>
       <c r="G25">
-        <v>0.002438041317575673</v>
+        <v>0.0007750876138496847</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2719311438723722</v>
+        <v>0.2223619067019413</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.492009413382533</v>
+        <v>1.216359938583139</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.599131309853178</v>
+        <v>1.292890045641258</v>
       </c>
       <c r="O25">
-        <v>3.566834749937783</v>
+        <v>3.081439029585482</v>
       </c>
     </row>
   </sheetData>
